--- a/UniversalAdapter/RecipeLib.xlsx
+++ b/UniversalAdapter/RecipeLib.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8B17F8-0291-4EC0-BDB7-51BB046F490B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{951622DB-0EA5-47F4-B930-12BD4515D13E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="19830" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LibRecipe" sheetId="1" r:id="rId1"/>
     <sheet name="LibRecipe2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
@@ -129,223 +130,7 @@
     <t>358</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>371</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
     <t>03022020 - Daily - 10m/1d</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 10m/12h</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 10m/30m</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 10m/1h</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 10m/15m</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 1h/1d</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 1h/1h</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 1h/30m</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 1h/12h</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 1h/15m</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 15m/1d</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 15m/12h</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 15m/1h</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 15m/15m</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 15m/30m</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 30m/12h</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 30m/15m</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 30m/1d</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 30m/1h</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 30m/30m</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 5m/12h</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 5m/15m</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 5m/1d</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 5m/1h</t>
-  </si>
-  <si>
-    <t>03022020 - Daily - 5m/30m</t>
   </si>
   <si>
     <t>09:45 AM</t>
@@ -785,7 +570,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C26"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>35</v>
@@ -845,517 +630,85 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="1"/>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26" xr:uid="{E0D078A1-B57C-4CD7-AE5B-D7279DD196B2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{E0D078A1-B57C-4CD7-AE5B-D7279DD196B2}">
       <formula1>"'246cn,'357,all,Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E26" xr:uid="{807F8878-F8AA-4D40-8BC4-4B17A5D8A8B2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{807F8878-F8AA-4D40-8BC4-4B17A5D8A8B2}">
       <formula1>"Onetime,Daily,Monthly,Weekly"</formula1>
     </dataValidation>
   </dataValidations>
